--- a/Results/mlp-results.xlsx
+++ b/Results/mlp-results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dalu-my.sharepoint.com/personal/hs762129_dal_ca/Documents/Hesam Research/024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dalu-my.sharepoint.com/personal/hs762129_dal_ca/Documents/Hesam-Dal-Courses/CSCI6709 - Software Defined Network/Project/SDN-repo/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{D08D5130-CFAE-A448-B493-1BAEF8E219B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8ED61517-6BCB-A149-8BFC-8D5D59DC5A16}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{D08D5130-CFAE-A448-B493-1BAEF8E219B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{080756AE-65F7-E148-AE25-E452D74C0AF0}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="820" windowWidth="21780" windowHeight="19240" xr2:uid="{5B3A3776-A83F-3D4A-8DEF-8646C06EE68A}"/>
+    <workbookView xWindow="-19120" yWindow="0" windowWidth="19120" windowHeight="21600" xr2:uid="{5B3A3776-A83F-3D4A-8DEF-8646C06EE68A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Host</t>
   </si>
@@ -454,7 +454,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,9 +516,6 @@
       <c r="A6" s="1">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
